--- a/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P16A11-Habitat-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>1.996420655098191</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>6.3896319382264</v>
+        <v>6.389631938226395</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8197655315381213</v>
+        <v>0.8816344679914869</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.502880563433416</v>
+        <v>-2.754343359096056</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.837250234735943</v>
+        <v>2.101429006486648</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3.396420097741856</v>
+        <v>2.969563004618634</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-1.213578846455088</v>
+        <v>-1.159881545377909</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.651216427278959</v>
+        <v>2.496207313724531</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>3.229852485043795</v>
+        <v>3.31630780807797</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-0.996288231075069</v>
+        <v>-0.9669412855222081</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.817366224619624</v>
+        <v>3.637822721176599</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.813831120222989</v>
+        <v>9.018887645111356</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.948572386250715</v>
+        <v>4.804001450985816</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10.50123186908247</v>
+        <v>10.0581338431241</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11.7180408636607</v>
+        <v>11.67542968283578</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>6.97559027656666</v>
+        <v>6.791023894774255</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.728884690964057</v>
+        <v>9.627193701819051</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.975919089821579</v>
+        <v>9.172108548489968</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.763893336899431</v>
+        <v>4.586572580628896</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>9.247500847157129</v>
+        <v>8.925870512684611</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>0.1293629085836396</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.4140316672225733</v>
+        <v>0.414031667222573</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.05314018511379724</v>
+        <v>0.05280339053599654</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1569370681992303</v>
+        <v>-0.1737704784628675</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1707695220930738</v>
+        <v>0.1363880629822938</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.1883972843414178</v>
+        <v>0.161384354361986</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.06485225026776931</v>
+        <v>-0.06667564525149046</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1365771016037843</v>
+        <v>0.1303966184741471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1899979100687529</v>
+        <v>0.1899744849460123</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.05775737490469621</v>
+        <v>-0.05667779725624638</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2251482453988236</v>
+        <v>0.2090162449051157</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7087879207974989</v>
+        <v>0.7420854755509034</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3954931926948033</v>
+        <v>0.3829851346875574</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8524343972747817</v>
+        <v>0.8103944206343776</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.8028668423257402</v>
+        <v>0.8094405038044894</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.4828418598636161</v>
+        <v>0.4602108678300855</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6824345303352748</v>
+        <v>0.6599184105114756</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6308320684394355</v>
+        <v>0.6530406505731864</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.3429588413713845</v>
+        <v>0.3264858082142929</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6690308228908437</v>
+        <v>0.6347065159759477</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-0.9627077718914412</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>1.03877456203102</v>
+        <v>1.038774562031022</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>1.643861380670167</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.9974335976343066</v>
+        <v>-1.205134386869468</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.058897603943836</v>
+        <v>-1.53373155517472</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6318612880368403</v>
+        <v>0.9023439241386275</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.265878318115079</v>
+        <v>-2.162748078712059</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.359162973054763</v>
+        <v>-4.736613250965765</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-2.081245913034426</v>
+        <v>-2.211439844632855</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.7507418641261868</v>
+        <v>-0.6960043406964354</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-1.861281278598922</v>
+        <v>-1.962768627744612</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.4492670019745784</v>
+        <v>0.1467446831869211</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.273578082153787</v>
+        <v>5.490203495233883</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.072541297518584</v>
+        <v>4.86397598731878</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.058261040278996</v>
+        <v>6.955743519825845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.547057350034451</v>
+        <v>4.92737766383784</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.698888171608557</v>
+        <v>2.456900265203442</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.368670025555053</v>
+        <v>3.92107452233571</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>4.026617023886208</v>
+        <v>4.040291708459135</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>2.670900932172426</v>
+        <v>2.884952436150866</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.558768406219192</v>
+        <v>4.717307828462728</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.05464045610552262</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05895778295076421</v>
+        <v>0.05895778295076437</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.1086560606386506</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.06935261295908877</v>
+        <v>-0.08479195582520109</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.07591703679985579</v>
+        <v>-0.103159527951084</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.03860400219261178</v>
+        <v>0.06283410804516124</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1177658419253439</v>
+        <v>-0.1186552275768498</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.2316229858747827</v>
+        <v>-0.2418426135288349</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1058261622343133</v>
+        <v>-0.1120645474027345</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.04616421180276069</v>
+        <v>-0.04552181782865616</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1159145056890063</v>
+        <v>-0.1159649674194404</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.02735396688270242</v>
+        <v>0.009486040354261094</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.4729309524987019</v>
+        <v>0.483554150316059</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4469184067175304</v>
+        <v>0.4646751802956595</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6441660970454255</v>
+        <v>0.6352130576005517</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.2802812118281258</v>
+        <v>0.314054017835763</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1738007674785534</v>
+        <v>0.1520252873684174</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.28622531345389</v>
+        <v>0.250044726397809</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.294824519080824</v>
+        <v>0.284948627629208</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1924895617924978</v>
+        <v>0.2029252840984939</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3308808150822857</v>
+        <v>0.3383436059041589</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>1.820402138273555</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6.74822319956273</v>
+        <v>6.748223199562734</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.7982463789886568</v>
@@ -1083,7 +1083,7 @@
         <v>1.651960541225478</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1319961884275328</v>
+        <v>0.13199618842753</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>1.447473828110282</v>
@@ -1092,7 +1092,7 @@
         <v>1.760847733011964</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>3.423955713679572</v>
+        <v>3.423955713679574</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.83855734097014</v>
+        <v>-1.770060221062091</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.931921173367659</v>
+        <v>-1.946551438096292</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.753686682748812</v>
+        <v>2.976358284295067</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.583612338174094</v>
+        <v>-3.020087627510274</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.463739535599581</v>
+        <v>-2.288658177383548</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.658422762383762</v>
+        <v>-3.56681150517175</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.401784989228125</v>
+        <v>-1.353671739624612</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.015306809339334</v>
+        <v>-0.9416146244278464</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.621741737884119</v>
+        <v>0.7483935095839502</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.716734425267286</v>
+        <v>5.821513365111302</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.276538330002547</v>
+        <v>5.436561235265727</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.56271622027856</v>
+        <v>10.2876619819044</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>4.631409037706136</v>
+        <v>4.840328689094677</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.98086560563134</v>
+        <v>5.628260733966531</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>3.547101813651249</v>
+        <v>3.627162345766976</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>4.421231692679758</v>
+        <v>4.122800295077885</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.260761348837643</v>
+        <v>4.473700403965849</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>5.818584833515638</v>
+        <v>5.884620408728329</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.1433144936574461</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.5312662354099217</v>
+        <v>0.5312662354099219</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.04737913993067049</v>
@@ -1188,7 +1188,7 @@
         <v>0.09805051636041343</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.007834505794747981</v>
+        <v>0.007834505794747816</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.09791332528606565</v>
@@ -1197,7 +1197,7 @@
         <v>0.1191112775328853</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.231611019866432</v>
+        <v>0.2316110198664322</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1227615283440081</v>
+        <v>-0.1160692761447428</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.1265930229605834</v>
+        <v>-0.1362401444303444</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.1796738939843649</v>
+        <v>0.2029935160530912</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1856289372450698</v>
+        <v>-0.1610609975440802</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.1292414433595289</v>
+        <v>-0.1210018478651989</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1874807429180771</v>
+        <v>-0.1836588460402687</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.08729015549507925</v>
+        <v>-0.08375443208373563</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.06288580767229394</v>
+        <v>-0.05834601955068881</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.03886183533242932</v>
+        <v>0.0456408659732079</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5489054857384443</v>
+        <v>0.515985668003063</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4786820045879799</v>
+        <v>0.4958362396276277</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.9842398629204305</v>
+        <v>0.9480588086078501</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.3078322309701929</v>
+        <v>0.3285575652405953</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3931074274598857</v>
+        <v>0.381533479689038</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2431565094294399</v>
+        <v>0.2463540409879994</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.325515051046806</v>
+        <v>0.2950542795686776</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.3160646196449804</v>
+        <v>0.3264756069709817</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4368365642520425</v>
+        <v>0.4439232061795153</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>3.885400083181287</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7.839029488108961</v>
+        <v>7.839029488108965</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>7.641547671826018</v>
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>3.810957952425519</v>
+        <v>3.736538931947912</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.8817707807903589</v>
+        <v>1.161672935050737</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.939824143493798</v>
+        <v>4.907042324509605</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.932271553901415</v>
+        <v>4.474440184713156</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.865566464259662</v>
+        <v>-1.9284688030869</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>4.552170881071584</v>
+        <v>4.378004620408289</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>4.835809293258824</v>
+        <v>4.809731001925211</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3494723070989528</v>
+        <v>0.2678108466562041</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>5.775863884011728</v>
+        <v>5.61136918388676</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>10.11277450365077</v>
+        <v>10.33747756229176</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.791218162457098</v>
+        <v>6.978433858484545</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.85414570926273</v>
+        <v>11.03548420290705</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>11.10396628983493</v>
+        <v>11.63747179891084</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.88461698628107</v>
+        <v>4.971585331039767</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.97262483950261</v>
+        <v>10.97669822801594</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.595074821107625</v>
+        <v>9.676912419119594</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>4.738110588035736</v>
+        <v>4.764622614111571</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.981146772681701</v>
+        <v>9.910593454328211</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.3412208171614745</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.6884336208422919</v>
+        <v>0.6884336208422921</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.4867300812864149</v>
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.3022769411070649</v>
+        <v>0.2829801545454019</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.06051356943981725</v>
+        <v>0.09231468655774297</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.3733281110221212</v>
+        <v>0.3779859112091086</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.221600176290293</v>
+        <v>0.262053732667477</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1084910487615259</v>
+        <v>-0.1139264406060505</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2513252553344365</v>
+        <v>0.2506942165143832</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3292210250016657</v>
+        <v>0.3165823132476088</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.0256347174332641</v>
+        <v>0.01564339366340148</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.3903475483900205</v>
+        <v>0.3812376122688024</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.9980568004419385</v>
+        <v>1.002138510015094</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6751707885056941</v>
+        <v>0.7048549430891259</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.092221278281659</v>
+        <v>1.109089217740747</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7925228453967841</v>
+        <v>0.8318261894325748</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3428861171056615</v>
+        <v>0.3489482645007911</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7834159711034132</v>
+        <v>0.7834172543667423</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7474503006234906</v>
+        <v>0.7637891302348718</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3707816277729312</v>
+        <v>0.3689521568434676</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.8087874550132667</v>
+        <v>0.7909657881549705</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.210235178632209</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.153773736763657</v>
+        <v>6.153773736763654</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>4.23384922465703</v>
@@ -1511,7 +1511,7 @@
         <v>1.088251524439845</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.85547672480637</v>
+        <v>3.855476724806367</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.129817256561449</v>
@@ -1520,7 +1520,7 @@
         <v>1.649373487258002</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.997388299125122</v>
+        <v>4.997388299125119</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.386359026533444</v>
+        <v>1.987367696049968</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.6504672229537624</v>
+        <v>0.6001825661916143</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.32869641085463</v>
+        <v>4.438846896275646</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2.280531640518746</v>
+        <v>2.466420738102006</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-0.8387572511528564</v>
+        <v>-0.7209812336444984</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.190049983719225</v>
+        <v>2.113688094746829</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.778437709613973</v>
+        <v>2.88281958830066</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.4057680984804281</v>
+        <v>0.4820798734592555</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>3.884078804888263</v>
+        <v>3.817989570370688</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>5.789139319773737</v>
+        <v>5.674445963290113</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.020912953495983</v>
+        <v>3.892143562273723</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7.831503279141105</v>
+        <v>7.811367752723217</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.225374581294768</v>
+        <v>6.129024827356385</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>3.024069150100111</v>
+        <v>2.971288432023963</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.550299579752044</v>
+        <v>5.382471792990877</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>5.399905888189675</v>
+        <v>5.478040471335314</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.053459493920734</v>
+        <v>2.864672790443327</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.194425176595685</v>
+        <v>6.16674296518884</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1750566613580535</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.4873956832853301</v>
+        <v>0.4873956832853298</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.2539478483562765</v>
@@ -1616,7 +1616,7 @@
         <v>0.06527373046080157</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2312529253404376</v>
+        <v>0.2312529253404375</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.2813132699387798</v>
@@ -1625,7 +1625,7 @@
         <v>0.1123513754303992</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.3404101334864397</v>
+        <v>0.3404101334864395</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.176594667369986</v>
+        <v>0.1467531759124035</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.04748304558194712</v>
+        <v>0.04328471973808345</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.3105753016144829</v>
+        <v>0.3293339467404083</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.132849791904434</v>
+        <v>0.1416948889545975</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.04926461058589928</v>
+        <v>-0.04385873381237246</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1208043676779114</v>
+        <v>0.1168509052451229</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1789160845305495</v>
+        <v>0.1922703513052666</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.02572574338226144</v>
+        <v>0.03223074272309032</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.2566627632903591</v>
+        <v>0.2484661923612461</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.4854962381638983</v>
+        <v>0.4747416455312904</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.3386443844466512</v>
+        <v>0.3334030160232102</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.6601782965350421</v>
+        <v>0.6825415962297786</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.3996164915964001</v>
+        <v>0.3882838022556061</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.1928643516392091</v>
+        <v>0.1833342821377304</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.3542366304774182</v>
+        <v>0.3438006084057811</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.384040355154013</v>
+        <v>0.3928016483371174</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2187393345110124</v>
+        <v>0.2039393000426511</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4428452602017476</v>
+        <v>0.4399073658649308</v>
       </c>
     </row>
     <row r="34">
